--- a/data/trans_camb/PCS12_SP_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R2-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/PCS12_SP_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R2-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12)</t>
+          <t>Población por debajo de la mediana de la puntuación del componente de salud física (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,93</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,62</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,58</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,82</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,22</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,12</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,35; 7,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,36; 1,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,03; 3,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,26; 6,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,38; -0,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,7; -2,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,25; 4,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,3; -1,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,91; -1,58</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,36%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,39%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,83%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,37%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,68; 38,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,66; 5,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,29; 20,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,17; 24,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,15; -3,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,91; -11,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,14; 21,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,28; -5,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,63; -6,49</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,71</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,36</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,18</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,6</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,49</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,38</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 9,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,16; 2,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,43; 12,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,98; 1,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,66; -10,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,59; -5,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,26; 4,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,88; -4,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,42; 2,72</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,38%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,97%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,05%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,43%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,38%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,68%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,52; 43,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,42; 12,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,78; 54,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,27; 3,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,02; -29,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,37; -15,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,96; 14,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,35; -15,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,86; 9,26</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,03</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,14</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,19</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,55</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,42</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,89</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,48; 6,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,76; -5,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,15; 4,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,34; 1,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,57; -9,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,5; -7,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,32; 2,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,1; -8,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,9; -2,95</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,43%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,14%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,55%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,29%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,9%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,43%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,89%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,57%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,44; 21,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,0; -17,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,81; 14,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,42; 2,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,0; -19,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,34; -16,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,34; 6,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,23; -21,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,8; -7,33</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,27</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,63</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,9</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,47</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,96</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,6</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,33</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,54; 4,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,98; 1,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,75; 19,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,2; -4,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,8; -10,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,23; -2,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,07; -1,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,72; -6,39</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,77; 5,59</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,22%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,03%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,92%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,43%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,34%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,21%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,89%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,11%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,24%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,36; 11,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,51; 3,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,05; 44,41</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,81; -7,18</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,34; -18,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,97; -4,17</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,65; -2,51</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,28; -12,79</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,84; 11,25</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,04</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,83</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,35</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,64</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,96</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,27</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,72</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,7</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,75; -0,74</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,64; -3,4</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,76; -2,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,74; 6,82</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,25; -1,26</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,93; -0,96</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,05; 1,33</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,46; -4,23</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,46; -3,34</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,63%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,85%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,61%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,85%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,88%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,78%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,75%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,26%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,88; -1,22</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,85; -5,36</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,29; -3,48</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,76; 9,98</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,46; -2,05</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,28; -1,59</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,49; 1,97</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,19; -6,41</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,2; -5,28</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,48</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,35</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,29</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,75</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,78</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,86</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,23</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,43; 3,16</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,02; -3,62</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,64; -8,58</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,12; -0,43</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,79; -3,88</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,68; -0,32</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,19; -0,02</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,33; -4,88</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,06; -3,93</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,96%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,24%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,93%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,93%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,96%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,27%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,17%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,94%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,37%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,48; 3,96</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,27; -4,47</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,55; -10,58</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,66; -0,49</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,67; -4,31</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,38; -0,13</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,83; -0,03</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,67; -5,69</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,48; -4,47</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,63</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,23</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,44</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,68</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,03; 3,98</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,88; -1,12</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,26; 7,46</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,27; -0,42</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,41; -6,74</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,78; 2,16</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,44; 1,08</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,19; -4,72</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,36; 3,3</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,52%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,85%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,17%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,25%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,38%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,9%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,36%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,37; 9,66</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,47; -2,68</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,96; 17,72</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,99; -0,74</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,85; -12,1</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,05; 3,59</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,77; 2,21</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,04; -9,52</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,71; 6,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/PCS12_SP_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R2-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,62</t>
+          <t>-2,91</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-10,82</t>
+          <t>-9,89</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-7,12</t>
+          <t>-6,26</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 3,98</t>
+          <t>-10,76; 5,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,7; -2,99</t>
+          <t>-16,83; -1,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-11,91; -1,58</t>
+          <t>-11,42; -0,43</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-16,34%</t>
+          <t>-13,12%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-38,39%</t>
+          <t>-35,12%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-28,37%</t>
+          <t>-24,95%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-45,29; 20,74</t>
+          <t>-44,83; 24,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-58,91; -11,21</t>
+          <t>-56,37; -6,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-45,63; -6,49</t>
+          <t>-43,13; -1,59</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,71</t>
+          <t>6,65</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-11,6</t>
+          <t>-13,63</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,38</t>
+          <t>-3,08</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 12,15</t>
+          <t>-0,48; 13,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,59; -5,28</t>
+          <t>-24,2; -6,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 2,72</t>
+          <t>-9,47; 2,44</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>23,97%</t>
+          <t>27,93%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-29,43%</t>
+          <t>-34,57%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-7,68%</t>
+          <t>-9,93%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 54,39</t>
+          <t>-2,81; 57,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,37; -15,02</t>
+          <t>-58,22; -17,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-19,86; 9,26</t>
+          <t>-29,79; 7,87</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-12,55</t>
+          <t>-11,69</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-6,89</t>
+          <t>-6,18</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 4,67</t>
+          <t>-5,59; 5,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,5; -7,59</t>
+          <t>-16,64; -6,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,9; -2,95</t>
+          <t>-10,24; -2,17</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-2,14%</t>
+          <t>-0,41%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-25,9%</t>
+          <t>-24,12%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-16,57%</t>
+          <t>-14,88%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,81; 14,9</t>
+          <t>-15,26; 17,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-34,34; -16,53</t>
+          <t>-32,53; -14,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-24,8; -7,33</t>
+          <t>-23,35; -5,47</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,63</t>
+          <t>19,03</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-7,96</t>
+          <t>-9,16</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>5,54</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,75; 19,11</t>
+          <t>2,7; 42,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,23; -2,37</t>
+          <t>-17,45; -3,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 5,59</t>
+          <t>-3,93; 23,42</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>17,92%</t>
+          <t>44,71%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-13,21%</t>
+          <t>-15,21%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-0,24%</t>
+          <t>10,79%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,05; 44,41</t>
+          <t>6,65; 108,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-20,97; -4,17</t>
+          <t>-28,02; -6,08</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 11,25</t>
+          <t>-7,61; 48,22</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-8,35</t>
+          <t>-7,41</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-6,96</t>
+          <t>-6,58</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-7,7</t>
+          <t>-7,06</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-14,76; -2,18</t>
+          <t>-13,89; -1,41</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-11,93; -0,96</t>
+          <t>-11,45; -0,57</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-11,46; -3,34</t>
+          <t>-10,75; -2,73</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-12,61%</t>
+          <t>-11,19%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-9,88%</t>
+          <t>-9,34%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-11,26%</t>
+          <t>-10,33%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-21,29; -3,48</t>
+          <t>-19,98; -2,09</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-16,28; -1,59</t>
+          <t>-15,78; -1,05</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-16,2; -5,28</t>
+          <t>-15,26; -4,27</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-8,48</t>
+          <t>-8,75</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-12,35</t>
+          <t>-13,95</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-3,6</t>
+          <t>-6,52</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-7,29</t>
+          <t>-10,36</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-5,75</t>
+          <t>-3,19</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>-4,0</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-7,86</t>
+          <t>-9,7</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-8,23</t>
+          <t>-6,33</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 3,16</t>
+          <t>-8,25; 5,54</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-13,02; -3,62</t>
+          <t>-15,11; -1,57</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-16,64; -8,58</t>
+          <t>-19,8; -7,45</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-7,12; -0,43</t>
+          <t>-12,22; -0,88</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-10,79; -3,88</t>
+          <t>-15,97; -4,71</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-8,68; -0,32</t>
+          <t>-12,44; 7,87</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-5,19; -0,02</t>
+          <t>-8,26; 0,89</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-10,33; -4,88</t>
+          <t>-14,16; -5,01</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-11,06; -3,93</t>
+          <t>-14,23; 5,01</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-1,96%</t>
+          <t>-1,27%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-10,24%</t>
+          <t>-11,36%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-14,93%</t>
+          <t>-18,11%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-3,93%</t>
+          <t>-7,45%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-7,96%</t>
+          <t>-11,84%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-6,27%</t>
+          <t>-3,65%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-3,17%</t>
+          <t>-4,84%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-8,94%</t>
+          <t>-11,73%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-9,37%</t>
+          <t>-7,65%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 3,96</t>
+          <t>-10,09; 7,54</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-15,27; -4,47</t>
+          <t>-18,97; -2,16</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-19,55; -10,58</t>
+          <t>-24,98; -10,15</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-7,66; -0,49</t>
+          <t>-13,54; -1,07</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-11,67; -4,31</t>
+          <t>-17,98; -5,52</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-9,38; -0,13</t>
+          <t>-14,14; 9,23</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-5,83; -0,03</t>
+          <t>-9,85; 1,13</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-11,67; -5,69</t>
+          <t>-16,83; -6,25</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-12,48; -4,47</t>
+          <t>-17,11; 6,18</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>-3,3</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-3,63</t>
+          <t>-8,65</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>-10,13</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-9,23</t>
+          <t>-4,74</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>-4,04</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-6,44</t>
+          <t>-6,3</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>-6,57</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 3,98</t>
+          <t>-9,34; 3,04</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,88; -1,12</t>
+          <t>-14,28; -2,49</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,26; 7,46</t>
+          <t>-15,41; -4,81</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-5,27; -0,42</t>
+          <t>-4,61; 1,95</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-11,41; -6,74</t>
+          <t>-8,33; -0,82</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 2,16</t>
+          <t>-6,77; -0,95</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 1,08</t>
+          <t>-5,37; 0,76</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-8,19; -4,72</t>
+          <t>-9,84; -2,86</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 3,3</t>
+          <t>-9,37; -3,54</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>-3,64%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-8,52%</t>
+          <t>-9,54%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>-11,16%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-4,85%</t>
+          <t>-1,49%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-16,17%</t>
+          <t>-4,95%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-5,25%</t>
+          <t>-4,22%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-1,38%</t>
+          <t>-2,33%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-12,9%</t>
+          <t>-6,71%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>-6,99%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-9,98; 3,48</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-15,36; -2,82</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-16,43; -5,44</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-4,74; 2,06</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-8,62; -0,91</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-6,95; -1,01</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-5,62; 0,82</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-10,3; -3,04</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-9,92; -3,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>1,42</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-3,63</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>7,22</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-2,76</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-9,23</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-2,33</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-6,44</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>2,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-1,03; 3,98</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-5,88; -1,12</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>2,37; 18,24</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-5,27; -0,42</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-11,41; -6,74</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-6,65; 6,21</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-2,44; 1,08</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-8,19; -4,72</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-0,95; 8,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>3,33%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-8,52%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>16,97%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>-4,85%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-16,17%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-4,09%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>-1,38%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>-12,9%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>4,81%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-2,37; 9,66</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-13,47; -2,68</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>2,96; 17,72</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>5,42; 42,77</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-8,99; -0,74</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-19,85; -12,1</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-10,05; 3,59</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-11,59; 11,04</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>-4,77; 2,21</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-16,04; -9,52</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-2,71; 6,7</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-1,84; 17,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/PCS12_SP_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R2-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 7,37</t>
+          <t>-3,06; 7,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 1,24</t>
+          <t>-9,22; 1,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 5,05</t>
+          <t>-9,42; 5,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 6,13</t>
+          <t>-5,91; 5,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,38; -0,9</t>
+          <t>-11,75; 0,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,83; -1,53</t>
+          <t>-16,99; -1,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 4,84</t>
+          <t>-2,89; 5,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,3; -1,24</t>
+          <t>-9,0; -1,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-11,42; -0,43</t>
+          <t>-11,29; -0,17</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 38,18</t>
+          <t>-12,31; 40,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-38,66; 5,89</t>
+          <t>-37,61; 9,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-44,83; 24,45</t>
+          <t>-39,69; 27,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,17; 24,21</t>
+          <t>-19,04; 23,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,15; -3,95</t>
+          <t>-38,84; 1,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-56,37; -6,29</t>
+          <t>-55,88; -5,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-12,14; 21,23</t>
+          <t>-10,66; 21,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-34,28; -5,14</t>
+          <t>-33,99; -5,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-43,13; -1,59</t>
+          <t>-44,5; -1,17</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 9,39</t>
+          <t>-1,21; 9,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 2,76</t>
+          <t>-6,55; 2,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 13,08</t>
+          <t>0,46; 13,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 1,12</t>
+          <t>-10,4; 1,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,66; -10,93</t>
+          <t>-21,14; -10,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-24,2; -6,82</t>
+          <t>-23,58; -6,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 4,17</t>
+          <t>-3,48; 4,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,88; -4,63</t>
+          <t>-11,91; -4,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 2,44</t>
+          <t>-9,94; 1,96</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 43,56</t>
+          <t>-3,4; 43,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-27,42; 12,98</t>
+          <t>-25,83; 13,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 57,84</t>
+          <t>2,01; 60,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,27; 3,11</t>
+          <t>-24,19; 3,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-51,02; -29,86</t>
+          <t>-50,68; -28,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-58,22; -17,92</t>
+          <t>-58,66; -17,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 14,35</t>
+          <t>-10,38; 13,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-36,35; -15,79</t>
+          <t>-36,46; -16,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-29,79; 7,87</t>
+          <t>-31,31; 6,19</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 6,79</t>
+          <t>-3,4; 7,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,76; -5,63</t>
+          <t>-14,91; -5,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 5,33</t>
+          <t>-5,6; 5,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 1,29</t>
+          <t>-9,63; 1,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-19,57; -9,0</t>
+          <t>-19,65; -8,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,64; -6,72</t>
+          <t>-16,71; -6,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 2,45</t>
+          <t>-5,22; 2,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-16,1; -8,26</t>
+          <t>-15,91; -8,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,24; -2,17</t>
+          <t>-10,11; -2,22</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 21,81</t>
+          <t>-9,31; 22,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-43,0; -17,82</t>
+          <t>-40,41; -14,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-15,26; 17,15</t>
+          <t>-15,54; 17,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,42; 2,78</t>
+          <t>-19,01; 2,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-38,0; -19,52</t>
+          <t>-38,21; -19,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-32,53; -14,49</t>
+          <t>-32,98; -14,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 6,21</t>
+          <t>-11,92; 7,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-37,23; -21,18</t>
+          <t>-36,83; -22,48</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-23,35; -5,47</t>
+          <t>-22,84; -5,49</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 4,65</t>
+          <t>-7,3; 4,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 1,76</t>
+          <t>-10,36; 1,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,7; 42,15</t>
+          <t>2,11; 40,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-16,2; -4,01</t>
+          <t>-15,73; -3,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-22,8; -10,78</t>
+          <t>-22,27; -10,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,45; -3,37</t>
+          <t>-17,23; -3,43</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,07; -1,27</t>
+          <t>-10,28; -1,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-14,72; -6,39</t>
+          <t>-14,26; -5,66</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 23,42</t>
+          <t>-3,66; 23,64</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,36; 11,94</t>
+          <t>-15,77; 12,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,51; 3,94</t>
+          <t>-22,72; 4,64</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,65; 108,3</t>
+          <t>4,72; 98,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-25,81; -7,18</t>
+          <t>-25,28; -6,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-36,34; -18,96</t>
+          <t>-35,38; -18,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-28,02; -6,08</t>
+          <t>-27,06; -6,21</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-18,65; -2,51</t>
+          <t>-19,28; -2,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-27,28; -12,79</t>
+          <t>-26,62; -11,29</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 48,22</t>
+          <t>-7,17; 48,86</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-13,75; -0,74</t>
+          <t>-14,52; -0,49</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-16,64; -3,4</t>
+          <t>-16,84; -3,18</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,89; -1,41</t>
+          <t>-13,53; -1,75</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 6,82</t>
+          <t>-5,35; 6,84</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-14,25; -1,26</t>
+          <t>-13,17; -0,85</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-11,45; -0,57</t>
+          <t>-11,55; -1,29</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 1,33</t>
+          <t>-7,86; 1,33</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-13,46; -4,23</t>
+          <t>-13,22; -3,87</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-10,75; -2,73</t>
+          <t>-10,83; -2,6</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-19,88; -1,22</t>
+          <t>-20,63; -0,69</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-23,85; -5,36</t>
+          <t>-24,43; -4,98</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-19,98; -2,09</t>
+          <t>-19,23; -2,75</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 9,98</t>
+          <t>-7,46; 10,3</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-19,46; -2,05</t>
+          <t>-18,12; -1,25</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-15,78; -1,05</t>
+          <t>-15,64; -2,03</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 1,97</t>
+          <t>-11,25; 2,03</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-19,19; -6,41</t>
+          <t>-18,91; -5,97</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-15,26; -4,27</t>
+          <t>-15,45; -3,9</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 5,54</t>
+          <t>-8,37; 6,55</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-15,11; -1,57</t>
+          <t>-15,28; -0,96</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-19,8; -7,45</t>
+          <t>-20,11; -7,53</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-12,22; -0,88</t>
+          <t>-11,72; -1,22</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-15,97; -4,71</t>
+          <t>-15,71; -5,18</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-12,44; 7,87</t>
+          <t>-12,96; 8,91</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 0,89</t>
+          <t>-8,49; 0,05</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-14,16; -5,01</t>
+          <t>-14,04; -5,37</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-14,23; 5,01</t>
+          <t>-13,52; 8,45</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 7,54</t>
+          <t>-10,41; 8,82</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-18,97; -2,16</t>
+          <t>-18,91; -1,27</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-24,98; -10,15</t>
+          <t>-25,2; -10,46</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-13,54; -1,07</t>
+          <t>-13,25; -1,4</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-17,98; -5,52</t>
+          <t>-17,79; -6,12</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-14,14; 9,23</t>
+          <t>-14,72; 10,57</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 1,13</t>
+          <t>-10,05; 0,07</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-16,83; -6,25</t>
+          <t>-16,67; -6,55</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-17,11; 6,18</t>
+          <t>-16,23; 10,79</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 3,04</t>
+          <t>-8,48; 3,25</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-14,28; -2,49</t>
+          <t>-14,32; -2,85</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-15,41; -4,81</t>
+          <t>-15,24; -4,17</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 1,95</t>
+          <t>-4,65; 1,95</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-8,33; -0,82</t>
+          <t>-8,75; -0,91</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-6,77; -0,95</t>
+          <t>-6,74; -0,79</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 0,76</t>
+          <t>-5,0; 1,07</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-9,84; -2,86</t>
+          <t>-9,82; -3,11</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-9,37; -3,54</t>
+          <t>-9,12; -3,64</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 3,48</t>
+          <t>-9,24; 3,71</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-15,36; -2,82</t>
+          <t>-15,54; -3,41</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-16,43; -5,44</t>
+          <t>-16,45; -4,84</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 2,06</t>
+          <t>-4,8; 2,06</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-8,62; -0,91</t>
+          <t>-9,0; -1,0</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-6,95; -1,01</t>
+          <t>-6,91; -0,95</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 0,82</t>
+          <t>-5,23; 1,15</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-10,3; -3,04</t>
+          <t>-10,39; -3,39</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-9,92; -3,93</t>
+          <t>-9,51; -3,9</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 3,98</t>
+          <t>-1,2; 3,77</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-5,88; -1,12</t>
+          <t>-6,19; -1,13</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>2,37; 18,24</t>
+          <t>2,64; 19,39</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-5,27; -0,42</t>
+          <t>-5,23; -0,3</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-11,41; -6,74</t>
+          <t>-11,7; -6,83</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 6,21</t>
+          <t>-6,39; 6,39</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 1,08</t>
+          <t>-2,33; 1,06</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-8,19; -4,72</t>
+          <t>-8,16; -4,81</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 8,87</t>
+          <t>-1,05; 8,91</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 9,66</t>
+          <t>-2,7; 9,16</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-13,47; -2,68</t>
+          <t>-14,04; -2,73</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>5,42; 42,77</t>
+          <t>6,17; 46,13</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-8,99; -0,74</t>
+          <t>-9,0; -0,55</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-19,85; -12,1</t>
+          <t>-20,12; -12,3</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 11,04</t>
+          <t>-11,14; 11,3</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 2,21</t>
+          <t>-4,66; 2,17</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-16,04; -9,52</t>
+          <t>-16,09; -9,77</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 17,7</t>
+          <t>-2,11; 17,86</t>
         </is>
       </c>
     </row>
